--- a/fonction.xlsx
+++ b/fonction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c05e5f699c3184d5/Cours/Inf1/labos/labo 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilda\OneDrive\Documents\GitHub\INF1-LABO3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{15B1662E-7E02-4E40-9933-8CD406D1EC44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{61CD6377-DEF8-4656-AC18-72C3F894331E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{15B1662E-7E02-4E40-9933-8CD406D1EC44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{519FA613-01EC-459A-8DF2-FF741D1C5734}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{35E1CCF6-76A9-4B63-81AE-CFBFA155025D}"/>
   </bookViews>
@@ -106,6 +106,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Longueur moyenne par</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> rapport à la taille de la grille</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1089,16 +1119,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1426,7 +1456,7 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1632,7 +1662,7 @@
         <v>158.3599999999999</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" ref="E3:E25" si="2">CONCATENATE("{",B13,", ",C13,"}",",")</f>
+        <f t="shared" ref="E13:E25" si="2">CONCATENATE("{",B13,", ",C13,"}",",")</f>
         <v>{24, 1866.87},</v>
       </c>
     </row>
